--- a/SceneServer/tools/Xlsx/kx_gem.xlsx
+++ b/SceneServer/tools/Xlsx/kx_gem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14670"/>
+    <workbookView windowWidth="28365" windowHeight="15255"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:L113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
@@ -1611,7 +1611,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1">
-        <v>2092</v>
+        <v>2067</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>37</v>

--- a/SceneServer/tools/Xlsx/kx_gem.xlsx
+++ b/SceneServer/tools/Xlsx/kx_gem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28365" windowHeight="15255"/>
+    <workbookView windowHeight="15255"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>idx</t>
   </si>
@@ -41,6 +41,9 @@
     <t>is_upgrade</t>
   </si>
   <si>
+    <t>is_bbk</t>
+  </si>
+  <si>
     <t>min_count</t>
   </si>
   <si>
@@ -84,6 +87,9 @@
   </si>
   <si>
     <t>是否可以升级属性</t>
+  </si>
+  <si>
+    <t>是否属于保护性石头</t>
   </si>
   <si>
     <t>属性个数下限</t>
@@ -1076,10 +1082,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
@@ -1091,28 +1097,29 @@
     <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="11" width="13.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18" style="1" customWidth="1"/>
-    <col min="14" max="14" width="82.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="39.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.25" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.75" style="1" customWidth="1"/>
-    <col min="20" max="23" width="255.625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="51.375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="14" style="1" customWidth="1"/>
-    <col min="26" max="26" width="18" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" customWidth="1"/>
-    <col min="28" max="28" width="9.375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="54.125" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="15.625" style="1"/>
+    <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="12" width="13.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="1" customWidth="1"/>
+    <col min="15" max="15" width="82.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="39.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.25" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.75" style="1" customWidth="1"/>
+    <col min="21" max="24" width="255.625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="51.375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14" style="1" customWidth="1"/>
+    <col min="27" max="27" width="18" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="54.125" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:12">
+    <row r="1" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,84 +1156,90 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:12">
+    <row r="2" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:12">
+    <row r="4" customHeight="1" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:12">
+    <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1234,7 +1247,7 @@
         <v>465</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -1249,22 +1262,25 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
       <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:12">
+    <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1272,7 +1288,7 @@
         <v>461</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1287,22 +1303,25 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
       </c>
       <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
         <v>320</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:12">
+    <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1310,7 +1329,7 @@
         <v>460</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1328,19 +1347,22 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
       <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:12">
+    <row r="8" customHeight="1" spans="1:13">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1348,7 +1370,7 @@
         <v>459</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1363,22 +1385,25 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
         <v>10</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
       <c r="K8" s="1">
         <v>0</v>
       </c>
       <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:12">
+    <row r="9" customHeight="1" spans="1:13">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1386,7 +1411,7 @@
         <v>458</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1401,22 +1426,25 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
       <c r="K9" s="1">
         <v>0</v>
       </c>
       <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:12">
+    <row r="10" customHeight="1" spans="1:13">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1424,7 +1452,7 @@
         <v>457</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1439,22 +1467,25 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
         <v>4</v>
       </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
       <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:12">
+    <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1462,7 +1493,7 @@
         <v>456</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1477,22 +1508,25 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
         <v>2</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>4</v>
       </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
       <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:12">
+    <row r="12" customHeight="1" spans="1:13">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1500,7 +1534,7 @@
         <v>455</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1515,22 +1549,25 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
         <v>10</v>
       </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
       <c r="K12" s="1">
         <v>0</v>
       </c>
       <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:12">
+    <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1538,7 +1575,7 @@
         <v>1860</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1553,22 +1590,25 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
         <v>10</v>
       </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
       <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:12">
+    <row r="14" customHeight="1" spans="1:13">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1576,7 +1616,7 @@
         <v>1500</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1594,19 +1634,22 @@
         <v>1</v>
       </c>
       <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
         <v>10</v>
       </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
       <c r="K14" s="1">
         <v>0</v>
       </c>
       <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:12">
+    <row r="15" customHeight="1" spans="1:13">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1614,7 +1657,7 @@
         <v>2067</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1629,22 +1672,25 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
         <v>4</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>6</v>
       </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
       <c r="K15" s="1">
         <v>0</v>
       </c>
       <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:12">
+    <row r="16" customHeight="1" spans="1:13">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1652,7 +1698,7 @@
         <v>1865</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1670,19 +1716,22 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
         <v>10</v>
       </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
       <c r="K16" s="1">
         <v>0</v>
       </c>
       <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="113" ht="14.25"/>
+    <row r="113"/>
   </sheetData>
   <autoFilter ref="A1:C95">
     <sortState ref="A1:C95">

--- a/SceneServer/tools/Xlsx/kx_gem.xlsx
+++ b/SceneServer/tools/Xlsx/kx_gem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15255"/>
+    <workbookView windowHeight="16425"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>idx</t>
   </si>
@@ -41,6 +41,9 @@
     <t>is_upgrade</t>
   </si>
   <si>
+    <t>is_upgrade_quality</t>
+  </si>
+  <si>
     <t>is_bbk</t>
   </si>
   <si>
@@ -87,6 +90,9 @@
   </si>
   <si>
     <t>是否可以升级属性</t>
+  </si>
+  <si>
+    <t>是否可以升级品质</t>
   </si>
   <si>
     <t>是否属于保护性石头</t>
@@ -1082,10 +1088,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
@@ -1097,29 +1103,30 @@
     <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="12" width="13.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18" style="1" customWidth="1"/>
-    <col min="15" max="15" width="82.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="39.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.25" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.75" style="1" customWidth="1"/>
-    <col min="21" max="24" width="255.625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="51.375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="14" style="1" customWidth="1"/>
-    <col min="27" max="27" width="18" style="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="1" customWidth="1"/>
-    <col min="29" max="29" width="9.375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="54.125" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="15.625" style="1"/>
+    <col min="8" max="8" width="17.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="13" width="13.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18" style="1" customWidth="1"/>
+    <col min="16" max="16" width="82.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="39.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21.25" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.75" style="1" customWidth="1"/>
+    <col min="22" max="25" width="255.625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="51.375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14" style="1" customWidth="1"/>
+    <col min="28" max="28" width="18" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9.375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="54.125" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1159,87 +1166,96 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:13">
+    <row r="2" customHeight="1" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:13">
+    <row r="4" customHeight="1" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:13">
+    <row r="5" customHeight="1" spans="1:14">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1247,7 +1263,7 @@
         <v>465</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -1265,22 +1281,25 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
       </c>
       <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:13">
+    <row r="6" customHeight="1" spans="1:14">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1288,7 +1307,7 @@
         <v>461</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1306,22 +1325,25 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
       </c>
       <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
         <v>320</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:13">
+    <row r="7" customHeight="1" spans="1:14">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1329,7 +1351,7 @@
         <v>460</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1350,19 +1372,22 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
       </c>
       <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:13">
+    <row r="8" customHeight="1" spans="1:14">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1370,7 +1395,7 @@
         <v>459</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1388,22 +1413,25 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
         <v>10</v>
       </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
       <c r="L8" s="1">
         <v>0</v>
       </c>
       <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:13">
+    <row r="9" customHeight="1" spans="1:14">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1411,7 +1439,7 @@
         <v>458</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1429,22 +1457,25 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
         <v>2</v>
       </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
       <c r="L9" s="1">
         <v>0</v>
       </c>
       <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:13">
+    <row r="10" customHeight="1" spans="1:14">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1452,7 +1483,7 @@
         <v>457</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1470,22 +1501,25 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
         <v>4</v>
       </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
       <c r="L10" s="1">
         <v>0</v>
       </c>
       <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:13">
+    <row r="11" customHeight="1" spans="1:14">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1493,7 +1527,7 @@
         <v>456</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1511,22 +1545,25 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
         <v>2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>4</v>
       </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
       <c r="L11" s="1">
         <v>0</v>
       </c>
       <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:13">
+    <row r="12" customHeight="1" spans="1:14">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1534,7 +1571,7 @@
         <v>455</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1552,22 +1589,25 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
         <v>10</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
       <c r="L12" s="1">
         <v>0</v>
       </c>
       <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:13">
+    <row r="13" customHeight="1" spans="1:14">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1575,7 +1615,7 @@
         <v>1860</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1593,22 +1633,25 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
         <v>10</v>
       </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
       <c r="L13" s="1">
         <v>0</v>
       </c>
       <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:13">
+    <row r="14" customHeight="1" spans="1:14">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1616,7 +1659,7 @@
         <v>1500</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1631,25 +1674,28 @@
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
       <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
         <v>10</v>
       </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
       <c r="L14" s="1">
         <v>0</v>
       </c>
       <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:13">
+    <row r="15" customHeight="1" spans="1:14">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1657,7 +1703,7 @@
         <v>2067</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1675,30 +1721,33 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
         <v>4</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>6</v>
       </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
       <c r="L15" s="1">
         <v>0</v>
       </c>
       <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:13">
+    <row r="16" customHeight="1" spans="1:14">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1713,25 +1762,28 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
         <v>10</v>
       </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
       <c r="L16" s="1">
         <v>0</v>
       </c>
       <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
         <v>65535</v>
       </c>
     </row>
-    <row r="113"/>
+    <row r="113" ht="14.25"/>
   </sheetData>
   <autoFilter ref="A1:C95">
     <sortState ref="A1:C95">
